--- a/PublicationCounts/ScopusAuthorCounts.xlsx
+++ b/PublicationCounts/ScopusAuthorCounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12720" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>y uniq eids</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">Author Count </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,13 +184,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -206,6 +231,13 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -230,6 +262,13 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,10 +601,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3130,23 +3169,47 @@
       </c>
       <c r="B54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28434082</v>
       </c>
       <c r="C54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="D54">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1712</v>
       </c>
       <c r="E54">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>30688</v>
       </c>
       <c r="F54">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8530</v>
+      </c>
+      <c r="H54">
+        <v>28434707</v>
+      </c>
+      <c r="I54">
+        <v>1712</v>
+      </c>
+      <c r="J54">
+        <v>32400</v>
+      </c>
+      <c r="K54">
+        <v>10242</v>
+      </c>
+      <c r="L54">
+        <v>28434082</v>
+      </c>
+      <c r="M54">
+        <v>1087</v>
+      </c>
+      <c r="N54">
+        <v>31775</v>
+      </c>
+      <c r="O54">
+        <v>9617</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3155,23 +3218,47 @@
       </c>
       <c r="B55">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28433499</v>
       </c>
       <c r="C55">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="D55">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>38540</v>
       </c>
       <c r="F55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10492</v>
+      </c>
+      <c r="H55">
+        <v>28434082</v>
+      </c>
+      <c r="I55">
+        <v>1492</v>
+      </c>
+      <c r="J55">
+        <v>40032</v>
+      </c>
+      <c r="K55">
+        <v>11984</v>
+      </c>
+      <c r="L55">
+        <v>28433499</v>
+      </c>
+      <c r="M55">
+        <v>909</v>
+      </c>
+      <c r="N55">
+        <v>39449</v>
+      </c>
+      <c r="O55">
+        <v>11401</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3180,23 +3267,47 @@
       </c>
       <c r="B56">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28444169</v>
       </c>
       <c r="C56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>13826</v>
       </c>
       <c r="D56">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3156</v>
       </c>
       <c r="E56">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>111102</v>
       </c>
       <c r="F56">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>45867</v>
+      </c>
+      <c r="H56">
+        <v>28433499</v>
+      </c>
+      <c r="I56">
+        <v>3156</v>
+      </c>
+      <c r="J56">
+        <v>114258</v>
+      </c>
+      <c r="K56">
+        <v>49023</v>
+      </c>
+      <c r="L56">
+        <v>28444169</v>
+      </c>
+      <c r="M56">
+        <v>13826</v>
+      </c>
+      <c r="N56">
+        <v>124928</v>
+      </c>
+      <c r="O56">
+        <v>59693</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3205,23 +3316,47 @@
       </c>
       <c r="B57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28453045</v>
       </c>
       <c r="C57">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9685</v>
       </c>
       <c r="D57">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="E57">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>25466</v>
       </c>
       <c r="F57">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>33761</v>
+      </c>
+      <c r="H57">
+        <v>28444169</v>
+      </c>
+      <c r="I57">
+        <v>809</v>
+      </c>
+      <c r="J57">
+        <v>26275</v>
+      </c>
+      <c r="K57">
+        <v>34570</v>
+      </c>
+      <c r="L57">
+        <v>28453045</v>
+      </c>
+      <c r="M57">
+        <v>9685</v>
+      </c>
+      <c r="N57">
+        <v>35151</v>
+      </c>
+      <c r="O57">
+        <v>43446</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3230,23 +3365,47 @@
       </c>
       <c r="B58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28452919</v>
       </c>
       <c r="C58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="D58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1801</v>
       </c>
       <c r="E58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>48963</v>
       </c>
       <c r="F58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8080</v>
+      </c>
+      <c r="H58">
+        <v>28453045</v>
+      </c>
+      <c r="I58">
+        <v>1801</v>
+      </c>
+      <c r="J58">
+        <v>50764</v>
+      </c>
+      <c r="K58">
+        <v>9881</v>
+      </c>
+      <c r="L58">
+        <v>28452919</v>
+      </c>
+      <c r="M58">
+        <v>1675</v>
+      </c>
+      <c r="N58">
+        <v>50638</v>
+      </c>
+      <c r="O58">
+        <v>9755</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3255,23 +3414,47 @@
       </c>
       <c r="B59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28473717</v>
       </c>
       <c r="C59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>22787</v>
       </c>
       <c r="D59">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="E59">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>73072</v>
       </c>
       <c r="F59">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>55303</v>
+      </c>
+      <c r="H59">
+        <v>28452919</v>
+      </c>
+      <c r="I59">
+        <v>1989</v>
+      </c>
+      <c r="J59">
+        <v>75061</v>
+      </c>
+      <c r="K59">
+        <v>57292</v>
+      </c>
+      <c r="L59">
+        <v>28473717</v>
+      </c>
+      <c r="M59">
+        <v>22787</v>
+      </c>
+      <c r="N59">
+        <v>95859</v>
+      </c>
+      <c r="O59">
+        <v>78090</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3280,23 +3463,47 @@
       </c>
       <c r="B60">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28471156</v>
       </c>
       <c r="C60">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6076</v>
       </c>
       <c r="D60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8637</v>
       </c>
       <c r="E60">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>127499</v>
       </c>
       <c r="F60">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>12379</v>
+      </c>
+      <c r="H60">
+        <v>28473717</v>
+      </c>
+      <c r="I60">
+        <v>8637</v>
+      </c>
+      <c r="J60">
+        <v>136136</v>
+      </c>
+      <c r="K60">
+        <v>21016</v>
+      </c>
+      <c r="L60">
+        <v>28471156</v>
+      </c>
+      <c r="M60">
+        <v>6076</v>
+      </c>
+      <c r="N60">
+        <v>133575</v>
+      </c>
+      <c r="O60">
+        <v>18455</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3305,23 +3512,47 @@
       </c>
       <c r="B61">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28472597</v>
       </c>
       <c r="C61">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4661</v>
       </c>
       <c r="D61">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3220</v>
       </c>
       <c r="E61">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>57183</v>
       </c>
       <c r="F61">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1921398</v>
+      </c>
+      <c r="H61">
+        <v>28471156</v>
+      </c>
+      <c r="I61">
+        <v>3220</v>
+      </c>
+      <c r="J61">
+        <v>60403</v>
+      </c>
+      <c r="K61">
+        <v>1924618</v>
+      </c>
+      <c r="L61">
+        <v>28472597</v>
+      </c>
+      <c r="M61">
+        <v>4661</v>
+      </c>
+      <c r="N61">
+        <v>61844</v>
+      </c>
+      <c r="O61">
+        <v>1926059</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3330,23 +3561,47 @@
       </c>
       <c r="B62">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28492680</v>
       </c>
       <c r="C62">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24128</v>
       </c>
       <c r="D62">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4045</v>
       </c>
       <c r="E62">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>146344</v>
       </c>
       <c r="F62">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>89768</v>
+      </c>
+      <c r="H62">
+        <v>28472597</v>
+      </c>
+      <c r="I62">
+        <v>4045</v>
+      </c>
+      <c r="J62">
+        <v>150389</v>
+      </c>
+      <c r="K62">
+        <v>93813</v>
+      </c>
+      <c r="L62">
+        <v>28492680</v>
+      </c>
+      <c r="M62">
+        <v>24128</v>
+      </c>
+      <c r="N62">
+        <v>170472</v>
+      </c>
+      <c r="O62">
+        <v>113896</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3355,23 +3610,47 @@
       </c>
       <c r="B63">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28507778</v>
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18856</v>
       </c>
       <c r="D63">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3758</v>
       </c>
       <c r="E63">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>146278</v>
       </c>
       <c r="F63">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68622</v>
+      </c>
+      <c r="H63">
+        <v>28492680</v>
+      </c>
+      <c r="I63">
+        <v>3758</v>
+      </c>
+      <c r="J63">
+        <v>150036</v>
+      </c>
+      <c r="K63">
+        <v>72380</v>
+      </c>
+      <c r="L63">
+        <v>28507778</v>
+      </c>
+      <c r="M63">
+        <v>18856</v>
+      </c>
+      <c r="N63">
+        <v>165134</v>
+      </c>
+      <c r="O63">
+        <v>87478</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3380,7 +3659,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28507589</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
@@ -3388,74 +3667,146 @@
       </c>
       <c r="D64">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E64">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20455</v>
       </c>
       <c r="F64">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>8125</v>
+      </c>
+      <c r="H64">
+        <v>28507778</v>
+      </c>
+      <c r="I64">
+        <v>189</v>
+      </c>
+      <c r="J64">
+        <v>20644</v>
+      </c>
+      <c r="K64">
+        <v>8314</v>
+      </c>
+      <c r="L64">
+        <v>28507589</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>20455</v>
+      </c>
+      <c r="O64">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="2">
         <v>41667</v>
       </c>
       <c r="B65">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28516920</v>
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>14449</v>
       </c>
       <c r="D65">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5118</v>
       </c>
       <c r="E65">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>71149</v>
       </c>
       <c r="F65">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>38089</v>
+      </c>
+      <c r="H65">
+        <v>28507589</v>
+      </c>
+      <c r="I65">
+        <v>5118</v>
+      </c>
+      <c r="J65">
+        <v>76267</v>
+      </c>
+      <c r="K65">
+        <v>43207</v>
+      </c>
+      <c r="L65">
+        <v>28516920</v>
+      </c>
+      <c r="M65">
+        <v>14449</v>
+      </c>
+      <c r="N65">
+        <v>85598</v>
+      </c>
+      <c r="O65">
+        <v>52538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="2">
         <v>41668</v>
       </c>
       <c r="B66">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28526856</v>
       </c>
       <c r="C66">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12104</v>
       </c>
       <c r="D66">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2168</v>
       </c>
       <c r="E66">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>37569</v>
       </c>
       <c r="F66">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1945666</v>
+      </c>
+      <c r="H66">
+        <v>28516920</v>
+      </c>
+      <c r="I66">
+        <v>2168</v>
+      </c>
+      <c r="J66">
+        <v>39737</v>
+      </c>
+      <c r="K66">
+        <v>1947834</v>
+      </c>
+      <c r="L66">
+        <v>28526856</v>
+      </c>
+      <c r="M66">
+        <v>12104</v>
+      </c>
+      <c r="N66">
+        <v>49673</v>
+      </c>
+      <c r="O66">
+        <v>1957770</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="2">
         <v>41669</v>
       </c>
       <c r="B67">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28526856</v>
       </c>
       <c r="C67">
         <f t="shared" si="11"/>
@@ -3471,32 +3822,1319 @@
       </c>
       <c r="F67">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>248</v>
+      </c>
+      <c r="H67">
+        <v>28526856</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>248</v>
+      </c>
+      <c r="L67">
+        <v>28526856</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="2">
         <v>41670</v>
       </c>
       <c r="B68">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28538368</v>
       </c>
       <c r="C68">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>13885</v>
       </c>
       <c r="D68">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2373</v>
       </c>
       <c r="E68">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44868</v>
       </c>
       <c r="F68">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1626</v>
+      </c>
+      <c r="H68">
+        <v>28526856</v>
+      </c>
+      <c r="I68">
+        <v>2373</v>
+      </c>
+      <c r="J68">
+        <v>47241</v>
+      </c>
+      <c r="K68">
+        <v>3999</v>
+      </c>
+      <c r="L68">
+        <v>28538368</v>
+      </c>
+      <c r="M68">
+        <v>13885</v>
+      </c>
+      <c r="N68">
+        <v>58753</v>
+      </c>
+      <c r="O68">
+        <v>15511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B92" si="15">L69</f>
+        <v>28538368</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C92" si="16">M69</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D92" si="17">I69</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E92" si="18">N69-M69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F92" si="19">O69-M69</f>
+        <v>51655</v>
+      </c>
+      <c r="H69">
+        <v>28538368</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>51655</v>
+      </c>
+      <c r="L69">
+        <v>28538368</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>51655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="2">
+        <v>41672</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="15"/>
+        <v>28543409</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="16"/>
+        <v>11370</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="17"/>
+        <v>6329</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="18"/>
+        <v>96506</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="19"/>
+        <v>43989</v>
+      </c>
+      <c r="H70">
+        <v>28538368</v>
+      </c>
+      <c r="I70">
+        <v>6329</v>
+      </c>
+      <c r="J70">
+        <v>102835</v>
+      </c>
+      <c r="K70">
+        <v>50318</v>
+      </c>
+      <c r="L70">
+        <v>28543409</v>
+      </c>
+      <c r="M70">
+        <v>11370</v>
+      </c>
+      <c r="N70">
+        <v>107876</v>
+      </c>
+      <c r="O70">
+        <v>55359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="15"/>
+        <v>28559270</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="16"/>
+        <v>23632</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="17"/>
+        <v>7771</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="18"/>
+        <v>157225</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="19"/>
+        <v>71080</v>
+      </c>
+      <c r="H71">
+        <v>28543409</v>
+      </c>
+      <c r="I71">
+        <v>7771</v>
+      </c>
+      <c r="J71">
+        <v>164996</v>
+      </c>
+      <c r="K71">
+        <v>78851</v>
+      </c>
+      <c r="L71">
+        <v>28559270</v>
+      </c>
+      <c r="M71">
+        <v>23632</v>
+      </c>
+      <c r="N71">
+        <v>180857</v>
+      </c>
+      <c r="O71">
+        <v>94712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="15"/>
+        <v>28565619</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="16"/>
+        <v>14462</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="17"/>
+        <v>8113</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="18"/>
+        <v>135552</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="19"/>
+        <v>50906</v>
+      </c>
+      <c r="H72">
+        <v>28559270</v>
+      </c>
+      <c r="I72">
+        <v>8113</v>
+      </c>
+      <c r="J72">
+        <v>143665</v>
+      </c>
+      <c r="K72">
+        <v>59019</v>
+      </c>
+      <c r="L72">
+        <v>28565619</v>
+      </c>
+      <c r="M72">
+        <v>14462</v>
+      </c>
+      <c r="N72">
+        <v>150014</v>
+      </c>
+      <c r="O72">
+        <v>65368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="15"/>
+        <v>28564659</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="16"/>
+        <v>789</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="17"/>
+        <v>1749</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="18"/>
+        <v>15430</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="19"/>
+        <v>37898</v>
+      </c>
+      <c r="H73">
+        <v>28565619</v>
+      </c>
+      <c r="I73">
+        <v>1749</v>
+      </c>
+      <c r="J73">
+        <v>17179</v>
+      </c>
+      <c r="K73">
+        <v>39647</v>
+      </c>
+      <c r="L73">
+        <v>28564659</v>
+      </c>
+      <c r="M73">
+        <v>789</v>
+      </c>
+      <c r="N73">
+        <v>16219</v>
+      </c>
+      <c r="O73">
+        <v>38687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="15"/>
+        <v>28586663</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="16"/>
+        <v>24209</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="17"/>
+        <v>2205</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="18"/>
+        <v>73565</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="19"/>
+        <v>1951384</v>
+      </c>
+      <c r="H74">
+        <v>28564659</v>
+      </c>
+      <c r="I74">
+        <v>2205</v>
+      </c>
+      <c r="J74">
+        <v>75770</v>
+      </c>
+      <c r="K74">
+        <v>1953589</v>
+      </c>
+      <c r="L74">
+        <v>28586663</v>
+      </c>
+      <c r="M74">
+        <v>24209</v>
+      </c>
+      <c r="N74">
+        <v>97774</v>
+      </c>
+      <c r="O74">
+        <v>1975593</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="15"/>
+        <v>28584885</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="16"/>
+        <v>2722</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="18"/>
+        <v>182229</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="19"/>
+        <v>73826</v>
+      </c>
+      <c r="H75">
+        <v>28586663</v>
+      </c>
+      <c r="I75">
+        <v>4500</v>
+      </c>
+      <c r="J75">
+        <v>186729</v>
+      </c>
+      <c r="K75">
+        <v>78326</v>
+      </c>
+      <c r="L75">
+        <v>28584885</v>
+      </c>
+      <c r="M75">
+        <v>2722</v>
+      </c>
+      <c r="N75">
+        <v>184951</v>
+      </c>
+      <c r="O75">
+        <v>76548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="15"/>
+        <v>28597460</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="16"/>
+        <v>15175</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="17"/>
+        <v>2600</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="18"/>
+        <v>75471</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="19"/>
+        <v>54460</v>
+      </c>
+      <c r="H76">
+        <v>28584885</v>
+      </c>
+      <c r="I76">
+        <v>2600</v>
+      </c>
+      <c r="J76">
+        <v>78071</v>
+      </c>
+      <c r="K76">
+        <v>57060</v>
+      </c>
+      <c r="L76">
+        <v>28597460</v>
+      </c>
+      <c r="M76">
+        <v>15175</v>
+      </c>
+      <c r="N76">
+        <v>90646</v>
+      </c>
+      <c r="O76">
+        <v>69635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="15"/>
+        <v>28620903</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="16"/>
+        <v>28195</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="17"/>
+        <v>4752</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="18"/>
+        <v>167349</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="19"/>
+        <v>86477</v>
+      </c>
+      <c r="H77">
+        <v>28597460</v>
+      </c>
+      <c r="I77">
+        <v>4752</v>
+      </c>
+      <c r="J77">
+        <v>172101</v>
+      </c>
+      <c r="K77">
+        <v>91229</v>
+      </c>
+      <c r="L77">
+        <v>28620903</v>
+      </c>
+      <c r="M77">
+        <v>28195</v>
+      </c>
+      <c r="N77">
+        <v>195544</v>
+      </c>
+      <c r="O77">
+        <v>114672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="15"/>
+        <v>28621693</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="16"/>
+        <v>4481</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="17"/>
+        <v>3691</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="18"/>
+        <v>77298</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="19"/>
+        <v>1936204</v>
+      </c>
+      <c r="H78">
+        <v>28620903</v>
+      </c>
+      <c r="I78">
+        <v>3691</v>
+      </c>
+      <c r="J78">
+        <v>80989</v>
+      </c>
+      <c r="K78">
+        <v>1939895</v>
+      </c>
+      <c r="L78">
+        <v>28621693</v>
+      </c>
+      <c r="M78">
+        <v>4481</v>
+      </c>
+      <c r="N78">
+        <v>81779</v>
+      </c>
+      <c r="O78">
+        <v>1940685</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="15"/>
+        <v>28636112</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="16"/>
+        <v>17248</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="17"/>
+        <v>2829</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="18"/>
+        <v>83310</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="19"/>
+        <v>2004032</v>
+      </c>
+      <c r="H79">
+        <v>28621693</v>
+      </c>
+      <c r="I79">
+        <v>2829</v>
+      </c>
+      <c r="J79">
+        <v>86139</v>
+      </c>
+      <c r="K79">
+        <v>2006861</v>
+      </c>
+      <c r="L79">
+        <v>28636112</v>
+      </c>
+      <c r="M79">
+        <v>17248</v>
+      </c>
+      <c r="N79">
+        <v>100558</v>
+      </c>
+      <c r="O79">
+        <v>2021280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="15"/>
+        <v>28643034</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="16"/>
+        <v>10898</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="17"/>
+        <v>3976</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="18"/>
+        <v>121085</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="19"/>
+        <v>19195</v>
+      </c>
+      <c r="H80">
+        <v>28636112</v>
+      </c>
+      <c r="I80">
+        <v>3976</v>
+      </c>
+      <c r="J80">
+        <v>125061</v>
+      </c>
+      <c r="K80">
+        <v>23171</v>
+      </c>
+      <c r="L80">
+        <v>28643034</v>
+      </c>
+      <c r="M80">
+        <v>10898</v>
+      </c>
+      <c r="N80">
+        <v>131983</v>
+      </c>
+      <c r="O80">
+        <v>30093</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="15"/>
+        <v>28560051</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="16"/>
+        <v>101</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="17"/>
+        <v>83084</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="18"/>
+        <v>1156</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="19"/>
+        <v>1906130</v>
+      </c>
+      <c r="H81">
+        <v>28643034</v>
+      </c>
+      <c r="I81">
+        <v>83084</v>
+      </c>
+      <c r="J81">
+        <v>84240</v>
+      </c>
+      <c r="K81">
+        <v>1989214</v>
+      </c>
+      <c r="L81">
+        <v>28560051</v>
+      </c>
+      <c r="M81">
+        <v>101</v>
+      </c>
+      <c r="N81">
+        <v>1257</v>
+      </c>
+      <c r="O81">
+        <v>1906231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="15"/>
+        <v>28322949</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="16"/>
+        <v>12553</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="17"/>
+        <v>249655</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="18"/>
+        <v>130016</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="19"/>
+        <v>1890885</v>
+      </c>
+      <c r="H82">
+        <v>28560051</v>
+      </c>
+      <c r="I82">
+        <v>249655</v>
+      </c>
+      <c r="J82">
+        <v>379671</v>
+      </c>
+      <c r="K82">
+        <v>2140540</v>
+      </c>
+      <c r="L82">
+        <v>28322949</v>
+      </c>
+      <c r="M82">
+        <v>12553</v>
+      </c>
+      <c r="N82">
+        <v>142569</v>
+      </c>
+      <c r="O82">
+        <v>1903438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="15"/>
+        <v>28340157</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="16"/>
+        <v>22508</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="17"/>
+        <v>5300</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="18"/>
+        <v>78504</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="19"/>
+        <v>70975</v>
+      </c>
+      <c r="H83">
+        <v>28322949</v>
+      </c>
+      <c r="I83">
+        <v>5300</v>
+      </c>
+      <c r="J83">
+        <v>83804</v>
+      </c>
+      <c r="K83">
+        <v>76275</v>
+      </c>
+      <c r="L83">
+        <v>28340157</v>
+      </c>
+      <c r="M83">
+        <v>22508</v>
+      </c>
+      <c r="N83">
+        <v>101012</v>
+      </c>
+      <c r="O83">
+        <v>93483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="15"/>
+        <v>28366982</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="16"/>
+        <v>28769</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="17"/>
+        <v>1944</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="18"/>
+        <v>93374</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="19"/>
+        <v>77819</v>
+      </c>
+      <c r="H84">
+        <v>28340157</v>
+      </c>
+      <c r="I84">
+        <v>1944</v>
+      </c>
+      <c r="J84">
+        <v>95318</v>
+      </c>
+      <c r="K84">
+        <v>79763</v>
+      </c>
+      <c r="L84">
+        <v>28366982</v>
+      </c>
+      <c r="M84">
+        <v>28769</v>
+      </c>
+      <c r="N84">
+        <v>122143</v>
+      </c>
+      <c r="O84">
+        <v>106588</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="15"/>
+        <v>28386696</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="16"/>
+        <v>21322</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="17"/>
+        <v>1608</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="18"/>
+        <v>68862</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="19"/>
+        <v>26901</v>
+      </c>
+      <c r="H85">
+        <v>28366982</v>
+      </c>
+      <c r="I85">
+        <v>1608</v>
+      </c>
+      <c r="J85">
+        <v>70470</v>
+      </c>
+      <c r="K85">
+        <v>28509</v>
+      </c>
+      <c r="L85">
+        <v>28386696</v>
+      </c>
+      <c r="M85">
+        <v>21322</v>
+      </c>
+      <c r="N85">
+        <v>90184</v>
+      </c>
+      <c r="O85">
+        <v>48223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="15"/>
+        <v>28399679</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="16"/>
+        <v>16519</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="17"/>
+        <v>3536</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="18"/>
+        <v>66564</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="19"/>
+        <v>66599</v>
+      </c>
+      <c r="H86">
+        <v>28386696</v>
+      </c>
+      <c r="I86">
+        <v>3536</v>
+      </c>
+      <c r="J86">
+        <v>70100</v>
+      </c>
+      <c r="K86">
+        <v>70135</v>
+      </c>
+      <c r="L86">
+        <v>28399679</v>
+      </c>
+      <c r="M86">
+        <v>16519</v>
+      </c>
+      <c r="N86">
+        <v>83083</v>
+      </c>
+      <c r="O86">
+        <v>83118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="15"/>
+        <v>28399385</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="16"/>
+        <v>1066</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="17"/>
+        <v>1360</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="18"/>
+        <v>3998</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="19"/>
+        <v>1908661</v>
+      </c>
+      <c r="H87">
+        <v>28399679</v>
+      </c>
+      <c r="I87">
+        <v>1360</v>
+      </c>
+      <c r="J87">
+        <v>5358</v>
+      </c>
+      <c r="K87">
+        <v>1910021</v>
+      </c>
+      <c r="L87">
+        <v>28399385</v>
+      </c>
+      <c r="M87">
+        <v>1066</v>
+      </c>
+      <c r="N87">
+        <v>5064</v>
+      </c>
+      <c r="O87">
+        <v>1909727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="15"/>
+        <v>28433781</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="16"/>
+        <v>36514</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="17"/>
+        <v>2118</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="18"/>
+        <v>132533</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="19"/>
+        <v>122366</v>
+      </c>
+      <c r="H88">
+        <v>28399385</v>
+      </c>
+      <c r="I88">
+        <v>2118</v>
+      </c>
+      <c r="J88">
+        <v>134651</v>
+      </c>
+      <c r="K88">
+        <v>124484</v>
+      </c>
+      <c r="L88">
+        <v>28433781</v>
+      </c>
+      <c r="M88">
+        <v>36514</v>
+      </c>
+      <c r="N88">
+        <v>169047</v>
+      </c>
+      <c r="O88">
+        <v>158880</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="15"/>
+        <v>28461215</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="16"/>
+        <v>29261</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="17"/>
+        <v>1827</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="18"/>
+        <v>88138</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="19"/>
+        <v>83450</v>
+      </c>
+      <c r="H89">
+        <v>28433781</v>
+      </c>
+      <c r="I89">
+        <v>1827</v>
+      </c>
+      <c r="J89">
+        <v>89965</v>
+      </c>
+      <c r="K89">
+        <v>85277</v>
+      </c>
+      <c r="L89">
+        <v>28461215</v>
+      </c>
+      <c r="M89">
+        <v>29261</v>
+      </c>
+      <c r="N89">
+        <v>117399</v>
+      </c>
+      <c r="O89">
+        <v>112711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="2">
+        <v>41692</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="15"/>
+        <v>28461215</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>28461215</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>28461215</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="2">
+        <v>41693</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="15"/>
+        <v>28461215</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>28461215</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>28461215</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="15"/>
+        <v>28496308</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="16"/>
+        <v>44460</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="17"/>
+        <v>9367</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="18"/>
+        <v>382934</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="19"/>
+        <v>177838</v>
+      </c>
+      <c r="H92">
+        <v>28461215</v>
+      </c>
+      <c r="I92">
+        <v>9367</v>
+      </c>
+      <c r="J92">
+        <v>392301</v>
+      </c>
+      <c r="K92">
+        <v>187205</v>
+      </c>
+      <c r="L92">
+        <v>28496308</v>
+      </c>
+      <c r="M92">
+        <v>44460</v>
+      </c>
+      <c r="N92">
+        <v>427394</v>
+      </c>
+      <c r="O92">
+        <v>222298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3">
+        <f>AVERAGE(C3:C92)</f>
+        <v>12023.555555555555</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" ref="D95:F95" si="20">AVERAGE(D3:D92)</f>
+        <v>7438.7555555555555</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="20"/>
+        <v>87109.755555555559</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="20"/>
+        <v>317941.31111111114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <f>MIN(C3:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ref="D96:F96" si="21">MIN(D3:D92)</f>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <f>MAX(C3:C92)</f>
+        <v>44460</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:F97" si="22">MAX(D3:D92)</f>
+        <v>249655</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="22"/>
+        <v>382934</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="22"/>
+        <v>2004032</v>
       </c>
     </row>
   </sheetData>
